--- a/Pruebas/resultados_observados_vs_predichos.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Pruebas/resultados_observados_vs_predichos.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos.xlsx
@@ -466,7 +466,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -586,7 +586,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -634,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">

--- a/Pruebas/resultados_observados_vs_predichos.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos.xlsx
@@ -450,207 +450,207 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/resultados_observados_vs_predichos.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -634,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/resultados_observados_vs_predichos.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -455,10 +455,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -471,31 +471,31 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -503,15 +503,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -519,31 +519,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -567,15 +567,15 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -639,18 +639,146 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>4</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/resultados_observados_vs_predichos.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -463,26 +463,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -506,60 +506,60 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -607,26 +607,26 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -634,12 +634,12 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -647,87 +647,87 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -735,18 +735,18 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -754,12 +754,12 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="n">
         <v>2</v>
@@ -770,12 +770,12 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>2</v>
